--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Il18-Il18rap.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Il18-Il18rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.15038204275642</v>
+        <v>2.036455333333333</v>
       </c>
       <c r="H2">
-        <v>4.15038204275642</v>
+        <v>6.109366</v>
       </c>
       <c r="I2">
-        <v>0.1301144885512121</v>
+        <v>0.05235126607966552</v>
       </c>
       <c r="J2">
-        <v>0.1301144885512121</v>
+        <v>0.05235126607966552</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.905468504959249</v>
+        <v>25.42986033333333</v>
       </c>
       <c r="N2">
-        <v>0.905468504959249</v>
+        <v>76.289581</v>
       </c>
       <c r="O2">
-        <v>0.7935247276856895</v>
+        <v>0.9199866268977179</v>
       </c>
       <c r="P2">
-        <v>0.7935247276856895</v>
+        <v>0.919986626897718</v>
       </c>
       <c r="Q2">
-        <v>3.75804022326437</v>
+        <v>51.78677470173844</v>
       </c>
       <c r="R2">
-        <v>3.75804022326437</v>
+        <v>466.080972315646</v>
       </c>
       <c r="S2">
-        <v>0.1032490640955634</v>
+        <v>0.0481624646944564</v>
       </c>
       <c r="T2">
-        <v>0.1032490640955634</v>
+        <v>0.04816246469445641</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.15038204275642</v>
+        <v>2.036455333333333</v>
       </c>
       <c r="H3">
-        <v>4.15038204275642</v>
+        <v>6.109366</v>
       </c>
       <c r="I3">
-        <v>0.1301144885512121</v>
+        <v>0.05235126607966552</v>
       </c>
       <c r="J3">
-        <v>0.1301144885512121</v>
+        <v>0.05235126607966552</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.235603062652819</v>
+        <v>0.03475766666666667</v>
       </c>
       <c r="N3">
-        <v>0.235603062652819</v>
+        <v>0.104273</v>
       </c>
       <c r="O3">
-        <v>0.2064752723143106</v>
+        <v>0.001257442553610377</v>
       </c>
       <c r="P3">
-        <v>0.2064752723143106</v>
+        <v>0.001257442553610378</v>
       </c>
       <c r="Q3">
-        <v>0.9778427204526757</v>
+        <v>0.07078243565755554</v>
       </c>
       <c r="R3">
-        <v>0.9778427204526757</v>
+        <v>0.6370419209179999</v>
       </c>
       <c r="S3">
-        <v>0.02686542445564877</v>
+        <v>6.582870970395096E-05</v>
       </c>
       <c r="T3">
-        <v>0.02686542445564877</v>
+        <v>6.582870970395097E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>25.1384029821811</v>
+        <v>2.036455333333333</v>
       </c>
       <c r="H4">
-        <v>25.1384029821811</v>
+        <v>6.109366</v>
       </c>
       <c r="I4">
-        <v>0.7880890032110044</v>
+        <v>0.05235126607966552</v>
       </c>
       <c r="J4">
-        <v>0.7880890032110044</v>
+        <v>0.05235126607966552</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.905468504959249</v>
+        <v>1.574974</v>
       </c>
       <c r="N4">
-        <v>0.905468504959249</v>
+        <v>4.724921999999999</v>
       </c>
       <c r="O4">
-        <v>0.7935247276856895</v>
+        <v>0.05697848901719383</v>
       </c>
       <c r="P4">
-        <v>0.7935247276856895</v>
+        <v>0.05697848901719383</v>
       </c>
       <c r="Q4">
-        <v>22.76203216533865</v>
+        <v>3.207364202161333</v>
       </c>
       <c r="R4">
-        <v>22.76203216533865</v>
+        <v>28.86627781945199</v>
       </c>
       <c r="S4">
-        <v>0.6253681116650988</v>
+        <v>0.002982896039356414</v>
       </c>
       <c r="T4">
-        <v>0.6253681116650988</v>
+        <v>0.002982896039356414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>25.1384029821811</v>
+        <v>2.036455333333333</v>
       </c>
       <c r="H5">
-        <v>25.1384029821811</v>
+        <v>6.109366</v>
       </c>
       <c r="I5">
-        <v>0.7880890032110044</v>
+        <v>0.05235126607966552</v>
       </c>
       <c r="J5">
-        <v>0.7880890032110044</v>
+        <v>0.05235126607966552</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.235603062652819</v>
+        <v>0.6019623333333334</v>
       </c>
       <c r="N5">
-        <v>0.235603062652819</v>
+        <v>1.805887</v>
       </c>
       <c r="O5">
-        <v>0.2064752723143106</v>
+        <v>0.02177744153147779</v>
       </c>
       <c r="P5">
-        <v>0.2064752723143106</v>
+        <v>0.0217774415314778</v>
       </c>
       <c r="Q5">
-        <v>5.922684732802625</v>
+        <v>1.225869404182444</v>
       </c>
       <c r="R5">
-        <v>5.922684732802625</v>
+        <v>11.032824637642</v>
       </c>
       <c r="S5">
-        <v>0.1627208915459057</v>
+        <v>0.001140076636148753</v>
       </c>
       <c r="T5">
-        <v>0.1627208915459057</v>
+        <v>0.001140076636148753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.60913878792718</v>
+        <v>4.199828</v>
       </c>
       <c r="H6">
-        <v>2.60913878792718</v>
+        <v>12.599484</v>
       </c>
       <c r="I6">
-        <v>0.08179650823778357</v>
+        <v>0.1079652028296371</v>
       </c>
       <c r="J6">
-        <v>0.08179650823778357</v>
+        <v>0.1079652028296371</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.905468504959249</v>
+        <v>25.42986033333333</v>
       </c>
       <c r="N6">
-        <v>0.905468504959249</v>
+        <v>76.289581</v>
       </c>
       <c r="O6">
-        <v>0.7935247276856895</v>
+        <v>0.9199866268977179</v>
       </c>
       <c r="P6">
-        <v>0.7935247276856895</v>
+        <v>0.919986626897718</v>
       </c>
       <c r="Q6">
-        <v>2.362492997535611</v>
+        <v>106.8010394640227</v>
       </c>
       <c r="R6">
-        <v>2.362492997535611</v>
+        <v>961.209355176204</v>
       </c>
       <c r="S6">
-        <v>0.06490755192502747</v>
+        <v>0.09932654277356578</v>
       </c>
       <c r="T6">
-        <v>0.06490755192502747</v>
+        <v>0.09932654277356578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.199828</v>
+      </c>
+      <c r="H7">
+        <v>12.599484</v>
+      </c>
+      <c r="I7">
+        <v>0.1079652028296371</v>
+      </c>
+      <c r="J7">
+        <v>0.1079652028296371</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.03475766666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.104273</v>
+      </c>
+      <c r="O7">
+        <v>0.001257442553610377</v>
+      </c>
+      <c r="P7">
+        <v>0.001257442553610378</v>
+      </c>
+      <c r="Q7">
+        <v>0.1459762216813333</v>
+      </c>
+      <c r="R7">
+        <v>1.313785995132</v>
+      </c>
+      <c r="S7">
+        <v>0.0001357600403471612</v>
+      </c>
+      <c r="T7">
+        <v>0.0001357600403471612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.199828</v>
+      </c>
+      <c r="H8">
+        <v>12.599484</v>
+      </c>
+      <c r="I8">
+        <v>0.1079652028296371</v>
+      </c>
+      <c r="J8">
+        <v>0.1079652028296371</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.574974</v>
+      </c>
+      <c r="N8">
+        <v>4.724921999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.05697848901719383</v>
+      </c>
+      <c r="P8">
+        <v>0.05697848901719383</v>
+      </c>
+      <c r="Q8">
+        <v>6.614619904472</v>
+      </c>
+      <c r="R8">
+        <v>59.53157914024799</v>
+      </c>
+      <c r="S8">
+        <v>0.006151694123667581</v>
+      </c>
+      <c r="T8">
+        <v>0.006151694123667581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.199828</v>
+      </c>
+      <c r="H9">
+        <v>12.599484</v>
+      </c>
+      <c r="I9">
+        <v>0.1079652028296371</v>
+      </c>
+      <c r="J9">
+        <v>0.1079652028296371</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6019623333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.805887</v>
+      </c>
+      <c r="O9">
+        <v>0.02177744153147779</v>
+      </c>
+      <c r="P9">
+        <v>0.0217774415314778</v>
+      </c>
+      <c r="Q9">
+        <v>2.528138262478667</v>
+      </c>
+      <c r="R9">
+        <v>22.753244362308</v>
+      </c>
+      <c r="S9">
+        <v>0.002351205892056563</v>
+      </c>
+      <c r="T9">
+        <v>0.002351205892056563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>30.042756</v>
+      </c>
+      <c r="H10">
+        <v>90.12826799999999</v>
+      </c>
+      <c r="I10">
+        <v>0.772310733939889</v>
+      </c>
+      <c r="J10">
+        <v>0.772310733939889</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>25.42986033333333</v>
+      </c>
+      <c r="N10">
+        <v>76.289581</v>
+      </c>
+      <c r="O10">
+        <v>0.9199866268977179</v>
+      </c>
+      <c r="P10">
+        <v>0.919986626897718</v>
+      </c>
+      <c r="Q10">
+        <v>763.9830891084119</v>
+      </c>
+      <c r="R10">
+        <v>6875.847801975708</v>
+      </c>
+      <c r="S10">
+        <v>0.7105155470342593</v>
+      </c>
+      <c r="T10">
+        <v>0.7105155470342595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.60913878792718</v>
-      </c>
-      <c r="H7">
-        <v>2.60913878792718</v>
-      </c>
-      <c r="I7">
-        <v>0.08179650823778357</v>
-      </c>
-      <c r="J7">
-        <v>0.08179650823778357</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.235603062652819</v>
-      </c>
-      <c r="N7">
-        <v>0.235603062652819</v>
-      </c>
-      <c r="O7">
-        <v>0.2064752723143106</v>
-      </c>
-      <c r="P7">
-        <v>0.2064752723143106</v>
-      </c>
-      <c r="Q7">
-        <v>0.6147210893219076</v>
-      </c>
-      <c r="R7">
-        <v>0.6147210893219076</v>
-      </c>
-      <c r="S7">
-        <v>0.01688895631275611</v>
-      </c>
-      <c r="T7">
-        <v>0.01688895631275611</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>30.042756</v>
+      </c>
+      <c r="H11">
+        <v>90.12826799999999</v>
+      </c>
+      <c r="I11">
+        <v>0.772310733939889</v>
+      </c>
+      <c r="J11">
+        <v>0.772310733939889</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.03475766666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.104273</v>
+      </c>
+      <c r="O11">
+        <v>0.001257442553610377</v>
+      </c>
+      <c r="P11">
+        <v>0.001257442553610378</v>
+      </c>
+      <c r="Q11">
+        <v>1.044216098796</v>
+      </c>
+      <c r="R11">
+        <v>9.397944889164</v>
+      </c>
+      <c r="S11">
+        <v>0.0009711363814660789</v>
+      </c>
+      <c r="T11">
+        <v>0.000971136381466079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>30.042756</v>
+      </c>
+      <c r="H12">
+        <v>90.12826799999999</v>
+      </c>
+      <c r="I12">
+        <v>0.772310733939889</v>
+      </c>
+      <c r="J12">
+        <v>0.772310733939889</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.574974</v>
+      </c>
+      <c r="N12">
+        <v>4.724921999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.05697848901719383</v>
+      </c>
+      <c r="P12">
+        <v>0.05697848901719383</v>
+      </c>
+      <c r="Q12">
+        <v>47.31655958834399</v>
+      </c>
+      <c r="R12">
+        <v>425.8490362950959</v>
+      </c>
+      <c r="S12">
+        <v>0.04400509867165487</v>
+      </c>
+      <c r="T12">
+        <v>0.04400509867165487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>30.042756</v>
+      </c>
+      <c r="H13">
+        <v>90.12826799999999</v>
+      </c>
+      <c r="I13">
+        <v>0.772310733939889</v>
+      </c>
+      <c r="J13">
+        <v>0.772310733939889</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6019623333333334</v>
+      </c>
+      <c r="N13">
+        <v>1.805887</v>
+      </c>
+      <c r="O13">
+        <v>0.02177744153147779</v>
+      </c>
+      <c r="P13">
+        <v>0.0217774415314778</v>
+      </c>
+      <c r="Q13">
+        <v>18.084607501524</v>
+      </c>
+      <c r="R13">
+        <v>162.761467513716</v>
+      </c>
+      <c r="S13">
+        <v>0.01681895185250864</v>
+      </c>
+      <c r="T13">
+        <v>0.01681895185250864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.620790333333333</v>
+      </c>
+      <c r="H14">
+        <v>7.862371</v>
+      </c>
+      <c r="I14">
+        <v>0.06737279715080845</v>
+      </c>
+      <c r="J14">
+        <v>0.06737279715080843</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>25.42986033333333</v>
+      </c>
+      <c r="N14">
+        <v>76.289581</v>
+      </c>
+      <c r="O14">
+        <v>0.9199866268977179</v>
+      </c>
+      <c r="P14">
+        <v>0.919986626897718</v>
+      </c>
+      <c r="Q14">
+        <v>66.64633213961677</v>
+      </c>
+      <c r="R14">
+        <v>599.816989256551</v>
+      </c>
+      <c r="S14">
+        <v>0.06198207239543645</v>
+      </c>
+      <c r="T14">
+        <v>0.06198207239543644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.620790333333333</v>
+      </c>
+      <c r="H15">
+        <v>7.862371</v>
+      </c>
+      <c r="I15">
+        <v>0.06737279715080845</v>
+      </c>
+      <c r="J15">
+        <v>0.06737279715080843</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.03475766666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.104273</v>
+      </c>
+      <c r="O15">
+        <v>0.001257442553610377</v>
+      </c>
+      <c r="P15">
+        <v>0.001257442553610378</v>
+      </c>
+      <c r="Q15">
+        <v>0.09109255680922222</v>
+      </c>
+      <c r="R15">
+        <v>0.819833011283</v>
+      </c>
+      <c r="S15">
+        <v>8.471742209318654E-05</v>
+      </c>
+      <c r="T15">
+        <v>8.471742209318653E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.620790333333333</v>
+      </c>
+      <c r="H16">
+        <v>7.862371</v>
+      </c>
+      <c r="I16">
+        <v>0.06737279715080845</v>
+      </c>
+      <c r="J16">
+        <v>0.06737279715080843</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.574974</v>
+      </c>
+      <c r="N16">
+        <v>4.724921999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.05697848901719383</v>
+      </c>
+      <c r="P16">
+        <v>0.05697848901719383</v>
+      </c>
+      <c r="Q16">
+        <v>4.127676634451333</v>
+      </c>
+      <c r="R16">
+        <v>37.14908971006199</v>
+      </c>
+      <c r="S16">
+        <v>0.003838800182514967</v>
+      </c>
+      <c r="T16">
+        <v>0.003838800182514966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.620790333333333</v>
+      </c>
+      <c r="H17">
+        <v>7.862371</v>
+      </c>
+      <c r="I17">
+        <v>0.06737279715080845</v>
+      </c>
+      <c r="J17">
+        <v>0.06737279715080843</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6019623333333334</v>
+      </c>
+      <c r="N17">
+        <v>1.805887</v>
+      </c>
+      <c r="O17">
+        <v>0.02177744153147779</v>
+      </c>
+      <c r="P17">
+        <v>0.0217774415314778</v>
+      </c>
+      <c r="Q17">
+        <v>1.577617064230778</v>
+      </c>
+      <c r="R17">
+        <v>14.198553578077</v>
+      </c>
+      <c r="S17">
+        <v>0.001467207150763845</v>
+      </c>
+      <c r="T17">
+        <v>0.001467207150763845</v>
       </c>
     </row>
   </sheetData>
